--- a/forTesting/Testing 3.xlsx
+++ b/forTesting/Testing 3.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="153222"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Jason\Dropbox (Personal)\Work\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Jason\Github\DuplicateFileManagementSystem\forTesting\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -433,7 +433,7 @@
   <dimension ref="B2:F11"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="B13" sqref="B13"/>
+      <selection activeCell="B12" sqref="B12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
